--- a/analysis/math/ch2Table.xlsx
+++ b/analysis/math/ch2Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\work\analysis\math\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3550F3D-64C7-4039-BB4C-D433F0539A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6EC5E5-A07E-4465-9D81-EE8465EA61E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{0B91C088-6DCC-43E2-977F-D3B70823ABFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B91C088-6DCC-43E2-977F-D3B70823ABFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2009,16 +2009,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>540183</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>178234</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128876</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>243177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228888</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>150091</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>423717</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2345,13 +2345,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACF0478-3F26-4C7B-B26E-5C9031743327}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="2">
         <v>0.999</v>
@@ -2390,7 +2390,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="35.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="36.25" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:13" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>10.827999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>13.816000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>16.265999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>18.466999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>20.515000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>22.457999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>24.321999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>26.123999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>27.876999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>29.588000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>31.263999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>32.908999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>34.527999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>36.122999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>37.697000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>39.252000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>40.79</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>42.311999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>43.82</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>45.314999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>46.796999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>48.268000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>49.728000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>51.179000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>54.052</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>55.475999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="31" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>56.892000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="32" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>58.301000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="33" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>59.703000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="34" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>61.097999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="35" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>62.487000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="36" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>63.87</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="37" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>65.247</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="38" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>66.619</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="39" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>67.984999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="40" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>69.346000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="41" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="42" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="43" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>73.402000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="44" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="45" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>76.084000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="46" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>77.418999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="47" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="48" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>80.076999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="49" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="50" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>82.72</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="51" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>84.037000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="52" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>85.350999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="53" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>86.661000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="54" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>55</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>93.168000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="55" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>60</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>99.606999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="56" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>65</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>105.988</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="57" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>70</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>112.31699999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="58" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>75</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>118.599</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="59" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>80</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>124.839</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="60" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>85</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>131.041</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="61" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>90</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>137.208</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="62" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>95</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>143.34399999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="63" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>100</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>149.44900000000001</v>
       </c>
     </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.75">
+    <row r="66" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M66">
         <f>SQRT(5)</f>
         <v>2.2360679774997898</v>
@@ -4910,13 +4910,13 @@
         <v>2.4494897427831779</v>
       </c>
     </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.75">
+    <row r="67" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M67">
         <f>M66+N66</f>
         <v>4.6855577202829677</v>
       </c>
     </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.75">
+    <row r="68" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M68">
         <f>SQRT(5+6)</f>
         <v>3.3166247903553998</v>
@@ -4924,11 +4924,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -4936,6 +4931,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4950,9 +4950,9 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30</v>
       </c>
@@ -5026,13 +5026,13 @@
         <v>3.4991300850232077</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I6">
         <f>J2-I2</f>
         <v>-2109.1951206695007</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L15">
         <f>6*0.95</f>
         <v>5.6999999999999993</v>

--- a/analysis/math/ch2Table.xlsx
+++ b/analysis/math/ch2Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6EC5E5-A07E-4465-9D81-EE8465EA61E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4DD37A-3361-4EA3-A22F-BCDD201F8AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B91C088-6DCC-43E2-977F-D3B70823ABFB}"/>
   </bookViews>
@@ -1068,189 +1068,189 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$63</c:f>
+              <c:f>Sheet1!$G$4:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10299999999999999</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35199999999999998</c:v>
+                  <c:v>0.58399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71099999999999997</c:v>
+                  <c:v>1.0640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.145</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.635</c:v>
+                  <c:v>2.2040000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1669999999999998</c:v>
+                  <c:v>2.8330000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7330000000000001</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3250000000000002</c:v>
+                  <c:v>4.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.94</c:v>
+                  <c:v>4.8650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5750000000000002</c:v>
+                  <c:v>5.5780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.226</c:v>
+                  <c:v>6.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8920000000000003</c:v>
+                  <c:v>7.0419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5709999999999997</c:v>
+                  <c:v>7.79</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.2610000000000001</c:v>
+                  <c:v>8.5470000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9619999999999997</c:v>
+                  <c:v>9.3119999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6720000000000006</c:v>
+                  <c:v>10.085000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.39</c:v>
+                  <c:v>10.865</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.117000000000001</c:v>
+                  <c:v>11.651</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.851000000000001</c:v>
+                  <c:v>12.443</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.590999999999999</c:v>
+                  <c:v>13.24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.337999999999999</c:v>
+                  <c:v>14.041</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.090999999999999</c:v>
+                  <c:v>14.848000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.848000000000001</c:v>
+                  <c:v>15.659000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.611000000000001</c:v>
+                  <c:v>16.472999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.379</c:v>
+                  <c:v>17.292000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.151</c:v>
+                  <c:v>18.114000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.928000000000001</c:v>
+                  <c:v>18.939</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.707999999999998</c:v>
+                  <c:v>19.768000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18.492999999999999</c:v>
+                  <c:v>20.599</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.280999999999999</c:v>
+                  <c:v>21.434000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.071999999999999</c:v>
+                  <c:v>22.271000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.867000000000001</c:v>
+                  <c:v>23.11</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21.664000000000001</c:v>
+                  <c:v>23.952000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22.465</c:v>
+                  <c:v>24.797000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.268999999999998</c:v>
+                  <c:v>25.643000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.074999999999999</c:v>
+                  <c:v>26.492000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24.884</c:v>
+                  <c:v>27.343</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.695</c:v>
+                  <c:v>28.196000000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.509</c:v>
+                  <c:v>29.050999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.326000000000001</c:v>
+                  <c:v>29.907</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.143999999999998</c:v>
+                  <c:v>30.765000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>28.965</c:v>
+                  <c:v>31.625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>29.786999999999999</c:v>
+                  <c:v>32.487000000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>30.611999999999998</c:v>
+                  <c:v>33.35</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>31.439</c:v>
+                  <c:v>34.215000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>32.268000000000001</c:v>
+                  <c:v>35.081000000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>33.097999999999999</c:v>
+                  <c:v>35.948999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>33.93</c:v>
+                  <c:v>36.817999999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>34.764000000000003</c:v>
+                  <c:v>37.689</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38.957999999999998</c:v>
+                  <c:v>42.06</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43.188000000000002</c:v>
+                  <c:v>46.459000000000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>47.45</c:v>
+                  <c:v>50.883000000000003</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>51.738999999999997</c:v>
+                  <c:v>55.329000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.054000000000002</c:v>
+                  <c:v>59.795000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>60.390999999999998</c:v>
+                  <c:v>64.278000000000006</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>64.748999999999995</c:v>
+                  <c:v>68.777000000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>69.126000000000005</c:v>
+                  <c:v>73.290999999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>73.52</c:v>
+                  <c:v>77.817999999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>77.929000000000002</c:v>
+                  <c:v>82.358000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,16 +2009,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>128876</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>243177</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>356177</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>423717</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>95972</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>44881</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4329</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2346,7 +2346,7 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,7 +4947,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
